--- a/data/data_coursework1_Q1.xlsx
+++ b/data/data_coursework1_Q1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodologie/Documents/Imperial/FinStats/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodologie/Documents/Imperial/FinStats/PBSet/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4993B3E-A0E8-654A-A4CB-44209E7ED840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EDD9E7-F160-6744-A581-5C7DA662F57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="680" windowWidth="19320" windowHeight="12120" xr2:uid="{B42A17F3-A37D-B945-9D92-F0B0A26C7365}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17240" xr2:uid="{B42A17F3-A37D-B945-9D92-F0B0A26C7365}"/>
   </bookViews>
   <sheets>
     <sheet name="sp500_1monthTBill" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,11 @@
     <definedName name="SPSS">sp500_1monthTBill!$B$1:$O$373</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <si>
     <t>year_</t>
   </si>
@@ -57,21 +46,12 @@
     <t>JAN 1960</t>
   </si>
   <si>
-    <t>adjusted</t>
-  </si>
-  <si>
     <t>FEB 1960</t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>MAR 1960</t>
   </si>
   <si>
-    <t>pirce</t>
-  </si>
-  <si>
     <t>APR 1960</t>
   </si>
   <si>
@@ -1179,28 +1159,7 @@
     <t>DEC 1990</t>
   </si>
   <si>
-    <t>Note: the 1-month T-bill is   multiplied</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>by 100</t>
-  </si>
-  <si>
-    <t>and is</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> not </t>
-  </si>
-  <si>
-    <t>expressed</t>
-  </si>
-  <si>
-    <t>in yearly</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> basis</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1167,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="#.00"/>
+    <numFmt numFmtId="164" formatCode="#.00"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -1250,7 +1209,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1560,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D1AC54-1AD3-494D-93D1-4EA15F2F93D8}">
   <dimension ref="B1:O373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11"/>
@@ -1572,7 +1531,9 @@
     <col min="4" max="5" width="8.59765625" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="5.59765625" customWidth="1"/>
-    <col min="8" max="15" width="8.59765625" customWidth="1"/>
+    <col min="8" max="12" width="8.59765625" customWidth="1"/>
+    <col min="13" max="13" width="87.19921875" customWidth="1"/>
+    <col min="14" max="15" width="8.59765625" customWidth="1"/>
     <col min="16" max="256" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1599,9 +1560,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
-        <v>381</v>
-      </c>
+      <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
@@ -1621,30 +1580,16 @@
       <c r="G2" s="3">
         <v>58.03</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>388</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="3">
@@ -1654,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0.28999999999999998</v>
@@ -1662,9 +1607,7 @@
       <c r="G3" s="3">
         <v>55.78</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1681,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>0.35</v>
@@ -1689,9 +1632,7 @@
       <c r="G4" s="3">
         <v>55.02</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1708,7 +1649,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0.19</v>
@@ -1733,7 +1674,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0.27</v>
@@ -1758,7 +1699,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7">
         <v>0.24</v>
@@ -1783,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0.13</v>
@@ -1808,7 +1749,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0.17</v>
@@ -1833,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0.16</v>
@@ -1858,7 +1799,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0.22</v>
@@ -1883,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0.13</v>
@@ -1908,7 +1849,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>0.16</v>
@@ -1933,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0.19</v>
@@ -1958,7 +1899,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0.14000000000000001</v>
@@ -1983,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0.2</v>
@@ -2008,7 +1949,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0.17</v>
@@ -2033,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>0.18</v>
@@ -2058,7 +1999,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0.2</v>
@@ -2083,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>0.18</v>
@@ -2108,7 +2049,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0.14000000000000001</v>
@@ -2133,7 +2074,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0.17</v>
@@ -2158,7 +2099,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0.19</v>
@@ -2183,7 +2124,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0.15</v>
@@ -2208,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0.19</v>
@@ -2233,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>0.24</v>
@@ -2260,7 +2201,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>0.2</v>
@@ -2287,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>0.2</v>
@@ -2314,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0.22</v>
@@ -2341,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0.24</v>
@@ -2368,7 +2309,7 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>0.2</v>
@@ -2395,7 +2336,7 @@
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>0.27</v>
@@ -2422,7 +2363,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E33">
         <v>0.23</v>
@@ -2449,7 +2390,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E34">
         <v>0.21</v>
@@ -2476,7 +2417,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E35">
         <v>0.26</v>
@@ -2503,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E36">
         <v>0.2</v>
@@ -2530,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E37">
         <v>0.23</v>
@@ -2557,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E38">
         <v>0.25</v>
@@ -2584,7 +2525,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E39">
         <v>0.23</v>
@@ -2611,7 +2552,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E40">
         <v>0.23</v>
@@ -2638,7 +2579,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>0.25</v>
@@ -2665,7 +2606,7 @@
         <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E42">
         <v>0.24</v>
@@ -2692,7 +2633,7 @@
         <v>6</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E43">
         <v>0.23</v>
@@ -2719,7 +2660,7 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E44">
         <v>0.27</v>
@@ -2746,7 +2687,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E45">
         <v>0.25</v>
@@ -2773,7 +2714,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>0.27</v>
@@ -2800,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E47">
         <v>0.28999999999999998</v>
@@ -2827,7 +2768,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E48">
         <v>0.27</v>
@@ -2854,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E49">
         <v>0.28999999999999998</v>
@@ -2881,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E50">
         <v>0.3</v>
@@ -2908,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E51">
         <v>0.26</v>
@@ -2935,7 +2876,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <v>0.31</v>
@@ -2962,7 +2903,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E53">
         <v>0.28999999999999998</v>
@@ -2989,7 +2930,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E54">
         <v>0.26</v>
@@ -3016,7 +2957,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E55">
         <v>0.3</v>
@@ -3043,7 +2984,7 @@
         <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E56">
         <v>0.3</v>
@@ -3070,7 +3011,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E57">
         <v>0.28000000000000003</v>
@@ -3097,7 +3038,7 @@
         <v>9</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E58">
         <v>0.28000000000000003</v>
@@ -3124,7 +3065,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E59">
         <v>0.28999999999999998</v>
@@ -3151,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E60">
         <v>0.28999999999999998</v>
@@ -3178,7 +3119,7 @@
         <v>12</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E61">
         <v>0.31</v>
@@ -3205,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E62">
         <v>0.28000000000000003</v>
@@ -3232,7 +3173,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E63">
         <v>0.3</v>
@@ -3259,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E64">
         <v>0.36</v>
@@ -3286,7 +3227,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E65">
         <v>0.31</v>
@@ -3313,7 +3254,7 @@
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E66">
         <v>0.31</v>
@@ -3340,7 +3281,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E67">
         <v>0.35</v>
@@ -3367,7 +3308,7 @@
         <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E68">
         <v>0.31</v>
@@ -3394,7 +3335,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E69">
         <v>0.33</v>
@@ -3421,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E70">
         <v>0.31</v>
@@ -3448,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E71">
         <v>0.31</v>
@@ -3475,7 +3416,7 @@
         <v>11</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E72">
         <v>0.35</v>
@@ -3502,7 +3443,7 @@
         <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E73">
         <v>0.33</v>
@@ -3529,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E74">
         <v>0.38</v>
@@ -3556,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E75">
         <v>0.35</v>
@@ -3583,7 +3524,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E76">
         <v>0.38</v>
@@ -3610,7 +3551,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E77">
         <v>0.34</v>
@@ -3637,7 +3578,7 @@
         <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E78">
         <v>0.41</v>
@@ -3664,7 +3605,7 @@
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E79">
         <v>0.38</v>
@@ -3691,7 +3632,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E80">
         <v>0.35</v>
@@ -3718,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E81">
         <v>0.41</v>
@@ -3745,7 +3686,7 @@
         <v>9</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E82">
         <v>0.4</v>
@@ -3772,7 +3713,7 @@
         <v>10</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E83">
         <v>0.45</v>
@@ -3799,7 +3740,7 @@
         <v>11</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E84">
         <v>0.4</v>
@@ -3826,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E85">
         <v>0.4</v>
@@ -3853,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E86">
         <v>0.43</v>
@@ -3880,7 +3821,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E87">
         <v>0.36</v>
@@ -3907,7 +3848,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E88">
         <v>0.39</v>
@@ -3934,7 +3875,7 @@
         <v>4</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E89">
         <v>0.32</v>
@@ -3961,7 +3902,7 @@
         <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E90">
         <v>0.33</v>
@@ -3988,7 +3929,7 @@
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E91">
         <v>0.27</v>
@@ -4015,7 +3956,7 @@
         <v>7</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E92">
         <v>0.32</v>
@@ -4042,7 +3983,7 @@
         <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E93">
         <v>0.31</v>
@@ -4069,7 +4010,7 @@
         <v>9</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E94">
         <v>0.32</v>
@@ -4096,7 +4037,7 @@
         <v>10</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E95">
         <v>0.39</v>
@@ -4123,7 +4064,7 @@
         <v>11</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E96">
         <v>0.36</v>
@@ -4150,7 +4091,7 @@
         <v>12</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E97">
         <v>0.33</v>
@@ -4177,7 +4118,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E98">
         <v>0.4</v>
@@ -4204,7 +4145,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E99">
         <v>0.39</v>
@@ -4231,7 +4172,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E100">
         <v>0.38</v>
@@ -4258,7 +4199,7 @@
         <v>4</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E101">
         <v>0.43</v>
@@ -4285,7 +4226,7 @@
         <v>5</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E102">
         <v>0.45</v>
@@ -4312,7 +4253,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E103">
         <v>0.43</v>
@@ -4339,7 +4280,7 @@
         <v>7</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E104">
         <v>0.48</v>
@@ -4366,7 +4307,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E105">
         <v>0.42</v>
@@ -4393,7 +4334,7 @@
         <v>9</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E106">
         <v>0.43</v>
@@ -4420,7 +4361,7 @@
         <v>10</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E107">
         <v>0.44</v>
@@ -4447,7 +4388,7 @@
         <v>11</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E108">
         <v>0.42</v>
@@ -4474,7 +4415,7 @@
         <v>12</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E109">
         <v>0.43</v>
@@ -4501,7 +4442,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E110">
         <v>0.53</v>
@@ -4528,7 +4469,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E111">
         <v>0.46</v>
@@ -4555,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E112">
         <v>0.46</v>
@@ -4582,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E113">
         <v>0.53</v>
@@ -4609,7 +4550,7 @@
         <v>5</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E114">
         <v>0.48</v>
@@ -4636,7 +4577,7 @@
         <v>6</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E115">
         <v>0.51</v>
@@ -4663,7 +4604,7 @@
         <v>7</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E116">
         <v>0.53</v>
@@ -4690,7 +4631,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E117">
         <v>0.5</v>
@@ -4717,7 +4658,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E118">
         <v>0.62</v>
@@ -4744,7 +4685,7 @@
         <v>10</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E119">
         <v>0.6</v>
@@ -4771,7 +4712,7 @@
         <v>11</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E120">
         <v>0.52</v>
@@ -4798,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E121">
         <v>0.64</v>
@@ -4825,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E122">
         <v>0.6</v>
@@ -4852,7 +4793,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E123">
         <v>0.62</v>
@@ -4879,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E124">
         <v>0.56999999999999995</v>
@@ -4906,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E125">
         <v>0.5</v>
@@ -4933,7 +4874,7 @@
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E126">
         <v>0.53</v>
@@ -4960,7 +4901,7 @@
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E127">
         <v>0.57999999999999996</v>
@@ -4987,7 +4928,7 @@
         <v>7</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E128">
         <v>0.52</v>
@@ -5014,7 +4955,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E129">
         <v>0.53</v>
@@ -5041,7 +4982,7 @@
         <v>9</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E130">
         <v>0.54</v>
@@ -5068,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E131">
         <v>0.46</v>
@@ -5095,7 +5036,7 @@
         <v>11</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E132">
         <v>0.46</v>
@@ -5122,7 +5063,7 @@
         <v>12</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E133">
         <v>0.42</v>
@@ -5149,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E134">
         <v>0.38</v>
@@ -5176,7 +5117,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E135">
         <v>0.33</v>
@@ -5203,7 +5144,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E136">
         <v>0.3</v>
@@ -5230,7 +5171,7 @@
         <v>4</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E137">
         <v>0.28000000000000003</v>
@@ -5257,7 +5198,7 @@
         <v>5</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E138">
         <v>0.28999999999999998</v>
@@ -5284,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E139">
         <v>0.37</v>
@@ -5311,7 +5252,7 @@
         <v>7</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E140">
         <v>0.4</v>
@@ -5338,7 +5279,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E141">
         <v>0.47</v>
@@ -5365,7 +5306,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E142">
         <v>0.37</v>
@@ -5392,7 +5333,7 @@
         <v>10</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E143">
         <v>0.37</v>
@@ -5419,7 +5360,7 @@
         <v>11</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E144">
         <v>0.37</v>
@@ -5446,7 +5387,7 @@
         <v>12</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E145">
         <v>0.37</v>
@@ -5473,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E146">
         <v>0.28999999999999998</v>
@@ -5500,7 +5441,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E147">
         <v>0.25</v>
@@ -5527,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E148">
         <v>0.27</v>
@@ -5554,7 +5495,7 @@
         <v>4</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E149">
         <v>0.28999999999999998</v>
@@ -5581,7 +5522,7 @@
         <v>5</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E150">
         <v>0.3</v>
@@ -5608,7 +5549,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E151">
         <v>0.28999999999999998</v>
@@ -5635,7 +5576,7 @@
         <v>7</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E152">
         <v>0.31</v>
@@ -5662,7 +5603,7 @@
         <v>8</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E153">
         <v>0.28999999999999998</v>
@@ -5689,7 +5630,7 @@
         <v>9</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E154">
         <v>0.34</v>
@@ -5716,7 +5657,7 @@
         <v>10</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E155">
         <v>0.4</v>
@@ -5743,7 +5684,7 @@
         <v>11</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E156">
         <v>0.37</v>
@@ -5770,7 +5711,7 @@
         <v>12</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E157">
         <v>0.37</v>
@@ -5797,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E158">
         <v>0.44</v>
@@ -5824,7 +5765,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E159">
         <v>0.41</v>
@@ -5851,7 +5792,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E160">
         <v>0.46</v>
@@ -5878,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E161">
         <v>0.52</v>
@@ -5905,7 +5846,7 @@
         <v>5</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E162">
         <v>0.51</v>
@@ -5932,7 +5873,7 @@
         <v>6</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E163">
         <v>0.51</v>
@@ -5959,7 +5900,7 @@
         <v>7</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E164">
         <v>0.64</v>
@@ -5986,7 +5927,7 @@
         <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E165">
         <v>0.7</v>
@@ -6013,7 +5954,7 @@
         <v>9</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E166">
         <v>0.68</v>
@@ -6040,7 +5981,7 @@
         <v>10</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E167">
         <v>0.65</v>
@@ -6067,7 +6008,7 @@
         <v>11</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E168">
         <v>0.56000000000000005</v>
@@ -6094,7 +6035,7 @@
         <v>12</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E169">
         <v>0.64</v>
@@ -6121,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E170">
         <v>0.63</v>
@@ -6148,7 +6089,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E171">
         <v>0.57999999999999996</v>
@@ -6175,7 +6116,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E172">
         <v>0.56000000000000005</v>
@@ -6202,7 +6143,7 @@
         <v>4</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E173">
         <v>0.75</v>
@@ -6229,7 +6170,7 @@
         <v>5</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E174">
         <v>0.75</v>
@@ -6256,7 +6197,7 @@
         <v>6</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E175">
         <v>0.6</v>
@@ -6283,7 +6224,7 @@
         <v>7</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E176">
         <v>0.7</v>
@@ -6310,7 +6251,7 @@
         <v>8</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E177">
         <v>0.6</v>
@@ -6337,7 +6278,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E178">
         <v>0.81</v>
@@ -6364,7 +6305,7 @@
         <v>10</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E179">
         <v>0.51</v>
@@ -6391,7 +6332,7 @@
         <v>11</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E180">
         <v>0.54</v>
@@ -6418,7 +6359,7 @@
         <v>12</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E181">
         <v>0.7</v>
@@ -6445,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E182">
         <v>0.57999999999999996</v>
@@ -6472,7 +6413,7 @@
         <v>2</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E183">
         <v>0.43</v>
@@ -6499,7 +6440,7 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E184">
         <v>0.41</v>
@@ -6526,7 +6467,7 @@
         <v>4</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E185">
         <v>0.44</v>
@@ -6553,7 +6494,7 @@
         <v>5</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E186">
         <v>0.44</v>
@@ -6580,7 +6521,7 @@
         <v>6</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E187">
         <v>0.41</v>
@@ -6607,7 +6548,7 @@
         <v>7</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E188">
         <v>0.48</v>
@@ -6634,7 +6575,7 @@
         <v>8</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E189">
         <v>0.48</v>
@@ -6661,7 +6602,7 @@
         <v>9</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E190">
         <v>0.53</v>
@@ -6688,7 +6629,7 @@
         <v>10</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E191">
         <v>0.56000000000000005</v>
@@ -6715,7 +6656,7 @@
         <v>11</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E192">
         <v>0.41</v>
@@ -6742,7 +6683,7 @@
         <v>12</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E193">
         <v>0.48</v>
@@ -6769,7 +6710,7 @@
         <v>1</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E194">
         <v>0.47</v>
@@ -6796,7 +6737,7 @@
         <v>2</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E195">
         <v>0.34</v>
@@ -6823,7 +6764,7 @@
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E196">
         <v>0.4</v>
@@ -6850,7 +6791,7 @@
         <v>4</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E197">
         <v>0.42</v>
@@ -6877,7 +6818,7 @@
         <v>5</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E198">
         <v>0.37</v>
@@ -6904,7 +6845,7 @@
         <v>6</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E199">
         <v>0.43</v>
@@ -6931,7 +6872,7 @@
         <v>7</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E200">
         <v>0.47</v>
@@ -6958,7 +6899,7 @@
         <v>8</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E201">
         <v>0.42</v>
@@ -6985,7 +6926,7 @@
         <v>9</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E202">
         <v>0.44</v>
@@ -7012,7 +6953,7 @@
         <v>10</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E203">
         <v>0.41</v>
@@ -7039,7 +6980,7 @@
         <v>11</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E204">
         <v>0.4</v>
@@ -7066,7 +7007,7 @@
         <v>12</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E205">
         <v>0.4</v>
@@ -7093,7 +7034,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E206">
         <v>0.36</v>
@@ -7120,7 +7061,7 @@
         <v>2</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E207">
         <v>0.35</v>
@@ -7147,7 +7088,7 @@
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E208">
         <v>0.38</v>
@@ -7174,7 +7115,7 @@
         <v>4</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E209">
         <v>0.38</v>
@@ -7201,7 +7142,7 @@
         <v>5</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E210">
         <v>0.37</v>
@@ -7228,7 +7169,7 @@
         <v>6</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E211">
         <v>0.4</v>
@@ -7255,7 +7196,7 @@
         <v>7</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E212">
         <v>0.42</v>
@@ -7282,7 +7223,7 @@
         <v>8</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E213">
         <v>0.44</v>
@@ -7309,7 +7250,7 @@
         <v>9</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E214">
         <v>0.43</v>
@@ -7336,7 +7277,7 @@
         <v>10</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E215">
         <v>0.49</v>
@@ -7363,7 +7304,7 @@
         <v>11</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E216">
         <v>0.5</v>
@@ -7390,7 +7331,7 @@
         <v>12</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E217">
         <v>0.49</v>
@@ -7417,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E218">
         <v>0.49</v>
@@ -7444,7 +7385,7 @@
         <v>2</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E219">
         <v>0.46</v>
@@ -7471,7 +7412,7 @@
         <v>3</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E220">
         <v>0.53</v>
@@ -7498,7 +7439,7 @@
         <v>4</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E221">
         <v>0.54</v>
@@ -7525,7 +7466,7 @@
         <v>5</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E222">
         <v>0.51</v>
@@ -7552,7 +7493,7 @@
         <v>6</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E223">
         <v>0.54</v>
@@ -7579,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E224">
         <v>0.56000000000000005</v>
@@ -7606,7 +7547,7 @@
         <v>8</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E225">
         <v>0.55000000000000004</v>
@@ -7633,7 +7574,7 @@
         <v>9</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E226">
         <v>0.62</v>
@@ -7660,7 +7601,7 @@
         <v>10</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E227">
         <v>0.68</v>
@@ -7687,7 +7628,7 @@
         <v>11</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E228">
         <v>0.7</v>
@@ -7714,7 +7655,7 @@
         <v>12</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E229">
         <v>0.78</v>
@@ -7741,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E230">
         <v>0.77</v>
@@ -7768,7 +7709,7 @@
         <v>2</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E231">
         <v>0.73</v>
@@ -7795,7 +7736,7 @@
         <v>3</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E232">
         <v>0.81</v>
@@ -7822,7 +7763,7 @@
         <v>4</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E233">
         <v>0.8</v>
@@ -7849,7 +7790,7 @@
         <v>5</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E234">
         <v>0.82</v>
@@ -7876,7 +7817,7 @@
         <v>6</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E235">
         <v>0.81</v>
@@ -7903,7 +7844,7 @@
         <v>7</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E236">
         <v>0.77</v>
@@ -7930,7 +7871,7 @@
         <v>8</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E237">
         <v>0.77</v>
@@ -7957,7 +7898,7 @@
         <v>9</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E238">
         <v>0.83</v>
@@ -7984,7 +7925,7 @@
         <v>10</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E239">
         <v>0.87</v>
@@ -8011,7 +7952,7 @@
         <v>11</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E240">
         <v>0.99</v>
@@ -8038,7 +7979,7 @@
         <v>12</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E241">
         <v>0.95</v>
@@ -8065,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E242">
         <v>0.8</v>
@@ -8092,7 +8033,7 @@
         <v>2</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E243">
         <v>0.89</v>
@@ -8119,7 +8060,7 @@
         <v>3</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E244">
         <v>1.21</v>
@@ -8146,7 +8087,7 @@
         <v>4</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E245">
         <v>1.26</v>
@@ -8173,7 +8114,7 @@
         <v>5</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E246">
         <v>0.81</v>
@@ -8200,7 +8141,7 @@
         <v>6</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E247">
         <v>0.61</v>
@@ -8227,7 +8168,7 @@
         <v>7</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E248">
         <v>0.53</v>
@@ -8254,7 +8195,7 @@
         <v>8</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E249">
         <v>0.64</v>
@@ -8281,7 +8222,7 @@
         <v>9</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E250">
         <v>0.75</v>
@@ -8308,7 +8249,7 @@
         <v>10</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E251">
         <v>0.95</v>
@@ -8335,7 +8276,7 @@
         <v>11</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E252">
         <v>0.96</v>
@@ -8362,7 +8303,7 @@
         <v>12</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E253">
         <v>1.31</v>
@@ -8389,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E254">
         <v>1.04</v>
@@ -8416,7 +8357,7 @@
         <v>2</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E255">
         <v>1.07</v>
@@ -8443,7 +8384,7 @@
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E256">
         <v>1.21</v>
@@ -8470,7 +8411,7 @@
         <v>4</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E257">
         <v>1.08</v>
@@ -8497,7 +8438,7 @@
         <v>5</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E258">
         <v>1.1499999999999999</v>
@@ -8524,7 +8465,7 @@
         <v>6</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E259">
         <v>1.35</v>
@@ -8551,7 +8492,7 @@
         <v>7</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E260">
         <v>1.24</v>
@@ -8578,7 +8519,7 @@
         <v>8</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E261">
         <v>1.28</v>
@@ -8605,7 +8546,7 @@
         <v>9</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E262">
         <v>1.24</v>
@@ -8632,7 +8573,7 @@
         <v>10</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E263">
         <v>1.21</v>
@@ -8659,7 +8600,7 @@
         <v>11</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E264">
         <v>1.07</v>
@@ -8686,7 +8627,7 @@
         <v>12</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E265">
         <v>0.87</v>
@@ -8713,7 +8654,7 @@
         <v>1</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E266">
         <v>0.8</v>
@@ -8740,7 +8681,7 @@
         <v>2</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E267">
         <v>0.92</v>
@@ -8767,7 +8708,7 @@
         <v>3</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E268">
         <v>0.98</v>
@@ -8794,7 +8735,7 @@
         <v>4</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E269">
         <v>1.1299999999999999</v>
@@ -8821,7 +8762,7 @@
         <v>5</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E270">
         <v>1.06</v>
@@ -8848,7 +8789,7 @@
         <v>6</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E271">
         <v>0.96</v>
@@ -8875,7 +8816,7 @@
         <v>7</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E272">
         <v>1.05</v>
@@ -8902,7 +8843,7 @@
         <v>8</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E273">
         <v>0.76</v>
@@ -8929,7 +8870,7 @@
         <v>9</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E274">
         <v>0.51</v>
@@ -8956,7 +8897,7 @@
         <v>10</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E275">
         <v>0.59</v>
@@ -8983,7 +8924,7 @@
         <v>11</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E276">
         <v>0.63</v>
@@ -9010,7 +8951,7 @@
         <v>12</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E277">
         <v>0.67</v>
@@ -9037,7 +8978,7 @@
         <v>1</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E278">
         <v>0.69</v>
@@ -9064,7 +9005,7 @@
         <v>2</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E279">
         <v>0.62</v>
@@ -9091,7 +9032,7 @@
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E280">
         <v>0.63</v>
@@ -9118,7 +9059,7 @@
         <v>4</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E281">
         <v>0.71</v>
@@ -9145,7 +9086,7 @@
         <v>5</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E282">
         <v>0.69</v>
@@ -9172,7 +9113,7 @@
         <v>6</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E283">
         <v>0.67</v>
@@ -9199,7 +9140,7 @@
         <v>7</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E284">
         <v>0.74</v>
@@ -9226,7 +9167,7 @@
         <v>8</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E285">
         <v>0.76</v>
@@ -9253,7 +9194,7 @@
         <v>9</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E286">
         <v>0.76</v>
@@ -9280,7 +9221,7 @@
         <v>10</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E287">
         <v>0.76</v>
@@ -9307,7 +9248,7 @@
         <v>11</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E288">
         <v>0.7</v>
@@ -9334,7 +9275,7 @@
         <v>12</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E289">
         <v>0.73</v>
@@ -9361,7 +9302,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E290">
         <v>0.76</v>
@@ -9388,7 +9329,7 @@
         <v>2</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E291">
         <v>0.71</v>
@@ -9415,7 +9356,7 @@
         <v>3</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E292">
         <v>0.73</v>
@@ -9442,7 +9383,7 @@
         <v>4</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E293">
         <v>0.81</v>
@@ -9469,7 +9410,7 @@
         <v>5</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E294">
         <v>0.78</v>
@@ -9496,7 +9437,7 @@
         <v>6</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E295">
         <v>0.75</v>
@@ -9523,7 +9464,7 @@
         <v>7</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E296">
         <v>0.82</v>
@@ -9550,7 +9491,7 @@
         <v>8</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E297">
         <v>0.83</v>
@@ -9577,7 +9518,7 @@
         <v>9</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E298">
         <v>0.86</v>
@@ -9604,7 +9545,7 @@
         <v>10</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -9631,7 +9572,7 @@
         <v>11</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E300">
         <v>0.73</v>
@@ -9658,7 +9599,7 @@
         <v>12</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E301">
         <v>0.64</v>
@@ -9685,7 +9626,7 @@
         <v>1</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E302">
         <v>0.65</v>
@@ -9712,7 +9653,7 @@
         <v>2</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E303">
         <v>0.57999999999999996</v>
@@ -9739,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E304">
         <v>0.62</v>
@@ -9766,7 +9707,7 @@
         <v>4</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E305">
         <v>0.72</v>
@@ -9793,7 +9734,7 @@
         <v>5</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E306">
         <v>0.66</v>
@@ -9820,7 +9761,7 @@
         <v>6</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E307">
         <v>0.55000000000000004</v>
@@ -9847,7 +9788,7 @@
         <v>7</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E308">
         <v>0.62</v>
@@ -9874,7 +9815,7 @@
         <v>8</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E309">
         <v>0.55000000000000004</v>
@@ -9901,7 +9842,7 @@
         <v>9</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E310">
         <v>0.6</v>
@@ -9928,7 +9869,7 @@
         <v>10</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E311">
         <v>0.65</v>
@@ -9955,7 +9896,7 @@
         <v>11</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E312">
         <v>0.61</v>
@@ -9982,7 +9923,7 @@
         <v>12</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E313">
         <v>0.65</v>
@@ -10009,7 +9950,7 @@
         <v>1</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E314">
         <v>0.56000000000000005</v>
@@ -10036,7 +9977,7 @@
         <v>2</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E315">
         <v>0.53</v>
@@ -10063,7 +10004,7 @@
         <v>3</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E316">
         <v>0.6</v>
@@ -10090,7 +10031,7 @@
         <v>4</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E317">
         <v>0.52</v>
@@ -10117,7 +10058,7 @@
         <v>5</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E318">
         <v>0.49</v>
@@ -10144,7 +10085,7 @@
         <v>6</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E319">
         <v>0.52</v>
@@ -10171,7 +10112,7 @@
         <v>7</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E320">
         <v>0.52</v>
@@ -10198,7 +10139,7 @@
         <v>8</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E321">
         <v>0.46</v>
@@ -10225,7 +10166,7 @@
         <v>9</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E322">
         <v>0.45</v>
@@ -10252,7 +10193,7 @@
         <v>10</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E323">
         <v>0.46</v>
@@ -10279,7 +10220,7 @@
         <v>11</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E324">
         <v>0.39</v>
@@ -10306,7 +10247,7 @@
         <v>12</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E325">
         <v>0.49</v>
@@ -10333,7 +10274,7 @@
         <v>1</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E326">
         <v>0.42</v>
@@ -10360,7 +10301,7 @@
         <v>2</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E327">
         <v>0.43</v>
@@ -10387,7 +10328,7 @@
         <v>3</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E328">
         <v>0.47</v>
@@ -10414,7 +10355,7 @@
         <v>4</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E329">
         <v>0.44</v>
@@ -10441,7 +10382,7 @@
         <v>5</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E330">
         <v>0.38</v>
@@ -10468,7 +10409,7 @@
         <v>6</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E331">
         <v>0.48</v>
@@ -10495,7 +10436,7 @@
         <v>7</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E332">
         <v>0.46</v>
@@ -10522,7 +10463,7 @@
         <v>8</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E333">
         <v>0.47</v>
@@ -10549,7 +10490,7 @@
         <v>9</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E334">
         <v>0.45</v>
@@ -10576,7 +10517,7 @@
         <v>10</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E335">
         <v>0.6</v>
@@ -10603,7 +10544,7 @@
         <v>11</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E336">
         <v>0.35</v>
@@ -10630,7 +10571,7 @@
         <v>12</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E337">
         <v>0.39</v>
@@ -10657,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E338">
         <v>0.28999999999999998</v>
@@ -10684,7 +10625,7 @@
         <v>2</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E339">
         <v>0.46</v>
@@ -10711,7 +10652,7 @@
         <v>3</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E340">
         <v>0.44</v>
@@ -10738,7 +10679,7 @@
         <v>4</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E341">
         <v>0.46</v>
@@ -10765,7 +10706,7 @@
         <v>5</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E342">
         <v>0.51</v>
@@ -10792,7 +10733,7 @@
         <v>6</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E343">
         <v>0.49</v>
@@ -10819,7 +10760,7 @@
         <v>7</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E344">
         <v>0.51</v>
@@ -10846,7 +10787,7 @@
         <v>8</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E345">
         <v>0.59</v>
@@ -10873,7 +10814,7 @@
         <v>9</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E346">
         <v>0.62</v>
@@ -10900,7 +10841,7 @@
         <v>10</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E347">
         <v>0.61</v>
@@ -10927,7 +10868,7 @@
         <v>11</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E348">
         <v>0.56999999999999995</v>
@@ -10954,7 +10895,7 @@
         <v>12</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E349">
         <v>0.63</v>
@@ -10981,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E350">
         <v>0.55000000000000004</v>
@@ -11008,7 +10949,7 @@
         <v>2</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E351">
         <v>0.61</v>
@@ -11035,7 +10976,7 @@
         <v>3</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E352">
         <v>0.67</v>
@@ -11062,7 +11003,7 @@
         <v>4</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E353">
         <v>0.67</v>
@@ -11089,7 +11030,7 @@
         <v>5</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E354">
         <v>0.79</v>
@@ -11116,7 +11057,7 @@
         <v>6</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E355">
         <v>0.71</v>
@@ -11143,7 +11084,7 @@
         <v>7</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E356">
         <v>0.7</v>
@@ -11170,7 +11111,7 @@
         <v>8</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E357">
         <v>0.74</v>
@@ -11197,7 +11138,7 @@
         <v>9</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E358">
         <v>0.65</v>
@@ -11224,7 +11165,7 @@
         <v>10</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E359">
         <v>0.68</v>
@@ -11251,7 +11192,7 @@
         <v>11</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E360">
         <v>0.69</v>
@@ -11278,7 +11219,7 @@
         <v>12</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E361">
         <v>0.61</v>
@@ -11305,7 +11246,7 @@
         <v>1</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E362">
         <v>0.56999999999999995</v>
@@ -11332,7 +11273,7 @@
         <v>2</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E363">
         <v>0.56999999999999995</v>
@@ -11359,7 +11300,7 @@
         <v>3</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E364">
         <v>0.64</v>
@@ -11386,7 +11327,7 @@
         <v>4</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E365">
         <v>0.69</v>
@@ -11413,7 +11354,7 @@
         <v>5</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E366">
         <v>0.68</v>
@@ -11440,7 +11381,7 @@
         <v>6</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E367">
         <v>0.63</v>
@@ -11467,7 +11408,7 @@
         <v>7</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E368">
         <v>0.68</v>
@@ -11494,7 +11435,7 @@
         <v>8</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E369">
         <v>0.66</v>
@@ -11521,7 +11462,7 @@
         <v>9</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E370">
         <v>0.6</v>
@@ -11548,7 +11489,7 @@
         <v>10</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E371">
         <v>0.68</v>
@@ -11575,7 +11516,7 @@
         <v>11</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E372">
         <v>0.56999999999999995</v>
@@ -11602,7 +11543,7 @@
         <v>12</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E373">
         <v>0.6</v>
